--- a/diabetes_descriptive_stats.xlsx
+++ b/diabetes_descriptive_stats.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,250 +438,295 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>count</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>std</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>min</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>25%</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>50%</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>75%</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pregnancies</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>768</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>3.85</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>3.37</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>6</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BloodPressure</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>768</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>72.36</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>12.15</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>24</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>64</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>72</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>80</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>122</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SkinThickness</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>768</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>28.93</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>9.52</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>22.22</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>28.44</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>35</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Glucose</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>768</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>121.64</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>30.47</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>44</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>99</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>117</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>140.25</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>199</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Insulin</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>768</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>152.68</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>97.28</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>14</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>89.98999999999999</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>130.2</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>190</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>846</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BMI</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>768</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>32.44</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>6.88</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>18.2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>27.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>32</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>36.6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>67.09999999999999</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DiabetesPedigreeFunction</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>768</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.47</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.33</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.08</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.24</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.37</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.63</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>2.42</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>768</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>33.24</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>11.76</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>21</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>24</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>29</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>41</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>81</v>
       </c>
     </row>
